--- a/data/sysml2/3/result/ResponsePlanElement.xlsx
+++ b/data/sysml2/3/result/ResponsePlanElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -578,11 +578,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>implementationCondition</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -595,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -603,15 +599,6 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>startTime</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -621,7 +608,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -630,11 +617,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>endTime</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -642,12 +625,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -655,21 +638,16 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -677,16 +655,21 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -694,21 +677,16 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -716,16 +694,21 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -733,21 +716,16 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -755,6 +733,15 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>implementationCondition</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -764,7 +751,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -773,7 +760,11 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -786,7 +777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -794,16 +785,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>implementationCondition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -820,12 +820,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>implementationCondition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -837,12 +837,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>startTime</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -859,12 +859,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>startTime</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -998,7 +998,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>aidStates</t>
+          <t>rescueStates</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Aid:Action</t>
+          <t>Rescue:Action</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rescueStates</t>
+          <t>towStates</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Rescue:Action</t>
+          <t>Tow:Action</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>towStates</t>
+          <t>aidStates</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tow:Action</t>
+          <t>Aid:Action</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1121,23 +1121,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1147,23 +1147,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1370,7 +1370,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1396,30 +1396,30 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>32635536</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1429,23 +1429,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>32635536</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1455,13 +1455,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>32wqrw</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1481,13 +1481,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>32wqrw</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1497,23 +1497,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>44234</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1523,44 +1523,44 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>44234</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -1570,44 +1570,44 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -1617,23 +1617,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1772,30 +1772,30 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -1805,23 +1805,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1840,7 +1840,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1887,7 +1887,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1913,30 +1913,30 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ewa2</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -1946,44 +1946,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ewa2</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -1993,44 +1993,44 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2040,44 +2040,44 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>抢修</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2087,41 +2087,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>抢修</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2134,20 +2130,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2160,13 +2152,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>消防</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2186,13 +2178,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>消防</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2207,13 +2199,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>牵引</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2233,13 +2225,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>牵引</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2254,7 +2246,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>那个</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2280,7 +2272,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>那个</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2296,20 +2288,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>预案1</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -2322,20 +2310,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>预案1</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>预案2</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2374,7 +2358,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>预案2</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2395,13 +2379,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>预案3</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2421,13 +2405,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>预案3</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ResponsePlanElement</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2437,23 +2421,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>预案4</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -2463,44 +2447,44 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>预案4</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>预案5</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -2510,44 +2494,44 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>预案5</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>预案6</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -2557,50 +2541,42 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>预案6</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PlanName</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>"默认预案"</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>32635536</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -2612,58 +2588,42 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PlanName</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>"默认预案"</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>32635536</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -2675,58 +2635,42 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -2738,60 +2682,44 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>674675</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -2801,60 +2729,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>674675</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>应急资源</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -2864,60 +2776,44 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>应急资源</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -2927,60 +2823,44 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>"0"</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -2990,52 +2870,44 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3045,33 +2917,33 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>抢修</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -3080,7 +2952,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -3092,12 +2964,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>抢修</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -3106,19 +2978,19 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3127,7 +2999,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -3139,12 +3011,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3153,19 +3025,19 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>消防</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3174,7 +3046,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3186,12 +3058,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>消防</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3200,19 +3072,19 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>牵引</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3221,7 +3093,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -3233,12 +3105,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>牵引</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3247,7 +3119,1921 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3256-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3256-物资</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3256-物资</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>674675-医生</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>674675-医生</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>partSub</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>actionSub</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>BehaviorType</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>"抢修"</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BehaviorType</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>"抢修"</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ImplementationCondition</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ImplementationCondition</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>"2"</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>"2"</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ResourceType</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>"类型B"</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ResourceType</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>"类型B"</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ResourceUsageCondition</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ResourceUsageCondition</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ResourceQuantityOrQuality</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ResourceQuantityOrQuality</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>"123"</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>"123"</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PlanName</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>"3256"</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PlanName</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>"3256"</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>3256-物资</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>3256-物资</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>123445</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>123445</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>674675-类型B</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>674675-类型B</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>674675-医生</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>674675-医生</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>674675-人员</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>674675-人员</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>674675</t>
         </is>
       </c>
     </row>

--- a/data/sysml2/3/result/ResponsePlanElement.xlsx
+++ b/data/sysml2/3/result/ResponsePlanElement.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -695,7 +695,11 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>implementationCondition</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -708,7 +712,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -716,6 +720,15 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -736,7 +749,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -746,12 +759,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>implementationCondition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -760,11 +773,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>startTime</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -772,12 +781,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>implementationCondition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -785,15 +794,6 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>endTime</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>startTime</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>startTime</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>firefightingStates</t>
+          <t>towStates</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>FireFighting:Action</t>
+          <t>Tow:Action</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>towStates</t>
+          <t>firefightingStates</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Tow:Action</t>
+          <t>FireFighting:Action</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1121,20 +1121,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1147,20 +1143,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1168,23 +1160,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>674675-抢修</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1194,44 +1186,44 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>674675-抢修</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>674675-抢修</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1241,23 +1233,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>674675-抢修</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1267,7 +1259,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1276,7 +1268,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1293,7 +1285,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1302,7 +1294,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1306,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1323,7 +1315,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1340,7 +1332,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1349,7 +1341,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1353,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1370,7 +1362,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1387,7 +1379,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1396,7 +1388,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1400,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1417,7 +1409,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1434,7 +1426,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1443,30 +1435,30 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1476,23 +1468,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>674675-救助</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1502,7 +1494,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1511,7 +1503,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -1528,7 +1520,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1537,30 +1529,30 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>674675-牵引</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -1570,44 +1562,44 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>674675-牵引</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>674675-牵引</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -1617,23 +1609,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>674675-牵引</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1643,7 +1635,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1652,7 +1644,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -1669,7 +1661,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1678,7 +1670,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1682,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1699,7 +1691,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -1716,7 +1708,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1725,7 +1717,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1729,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1746,7 +1738,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -1763,7 +1755,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1772,30 +1764,30 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -1805,23 +1797,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>674675-抢修</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1831,7 +1823,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1840,7 +1832,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -1857,7 +1849,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1866,7 +1858,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1870,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1887,7 +1879,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -1904,7 +1896,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1913,30 +1905,30 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -1946,44 +1938,44 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -1993,44 +1985,44 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2040,23 +2032,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>应急行为</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2066,7 +2058,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2075,7 +2067,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2092,7 +2084,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2101,26 +2093,30 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>应急行为</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ResponseResource</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2130,40 +2126,44 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ResponseResource</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2173,44 +2173,44 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2220,44 +2220,44 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -2267,40 +2267,44 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ResponseAction</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -2310,37 +2314,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ResponseAction</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>674675-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>123445</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -2353,20 +2357,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>123445</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2379,13 +2379,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ResponseAction</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2405,13 +2405,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ResponseAction</t>
+          <t>ResponseResource</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2421,23 +2421,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -2447,44 +2447,44 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -2494,44 +2494,44 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -2541,23 +2541,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>674675-救助</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -2602,7 +2602,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -2623,7 +2623,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -2670,7 +2670,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -2696,30 +2696,30 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>3256-牵引</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -2729,44 +2729,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>应急资源</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -2776,44 +2776,44 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>应急资源</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -2823,23 +2823,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2849,13 +2849,13 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ResponseResource</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2875,13 +2875,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ResponseResource</t>
+          <t>ResponseAction</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2891,23 +2891,23 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -2917,23 +2917,23 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>应急行为</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -2952,7 +2952,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -2999,7 +2999,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3046,7 +3046,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3072,7 +3072,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3119,7 +3119,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3140,7 +3140,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -3166,30 +3166,30 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>应急行为</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>123445-救助</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>3256-救助</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -3199,44 +3199,44 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>123445-救助</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>3256-救助</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -3246,44 +3246,44 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -3293,23 +3293,23 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>123445-救助</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -3502,23 +3502,23 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>123445-救助</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -3528,23 +3528,23 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ResponseAction</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>123445-救助</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -3589,30 +3589,30 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -3622,44 +3622,44 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>ResponseResource</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -3669,23 +3669,23 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>ResponseAction</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -3704,7 +3704,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -3730,7 +3730,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -3777,7 +3777,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -3798,7 +3798,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -3824,30 +3824,30 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>3256-救助</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>674675</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -3857,44 +3857,44 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>674675</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>674675-医生</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -3904,44 +3904,44 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>674675-医生</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>应急资源</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -3951,23 +3951,23 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>应急资源</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ResponseResource</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>3256-牵引</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -3989,12 +3989,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>"抢修"</t>
+          <t>"类型A"</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -4023,12 +4023,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>"抢修"</t>
+          <t>"类型A"</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>"2"</t>
+          <t>"1"</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4149,12 +4149,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>"2"</t>
+          <t>"1"</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -4166,24 +4166,24 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>"类型B"</t>
+          <t>"123"</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>"类型B"</t>
+          <t>"123"</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -4229,24 +4229,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"救助"</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -4263,24 +4263,24 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Bool</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>"0"</t>
+          <t>"救助"</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -4292,24 +4292,24 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>"1"</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -4326,24 +4326,24 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>"1"</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -4355,24 +4355,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>"123"</t>
+          <t>"3"</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -4389,24 +4389,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>"123"</t>
+          <t>"3"</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -4430,12 +4430,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>"3256"</t>
+          <t>"123445"</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -4464,12 +4464,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>"3256"</t>
+          <t>"123445"</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -4490,7 +4490,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -4516,7 +4516,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -4537,7 +4537,7 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>674675-人员</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>3256-牵引</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -4610,7 +4610,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-人员</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>123445-救助</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -4631,7 +4631,7 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>123445-救助</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -4657,7 +4657,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445-物资</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -4704,7 +4704,7 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-物资</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -4772,7 +4772,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -4798,7 +4798,7 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -4819,7 +4819,7 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -4845,7 +4845,7 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>674675-医生</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>674675-医生</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-牵引</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
